--- a/Code/Results/Cases/Case_9_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.16754944676844</v>
+        <v>21.21093160103033</v>
       </c>
       <c r="C2">
-        <v>14.17372271037321</v>
+        <v>15.03528107652039</v>
       </c>
       <c r="D2">
-        <v>4.535806139082106</v>
+        <v>4.532218218292574</v>
       </c>
       <c r="E2">
-        <v>8.259584043848005</v>
+        <v>8.134887341434009</v>
       </c>
       <c r="F2">
-        <v>27.79756438439792</v>
+        <v>25.13674523458024</v>
       </c>
       <c r="G2">
-        <v>39.94056158696552</v>
+        <v>34.76949870430045</v>
       </c>
       <c r="H2">
-        <v>2.571475542947252</v>
+        <v>2.445611250188222</v>
       </c>
       <c r="I2">
-        <v>3.236543364839141</v>
+        <v>3.078336374969685</v>
       </c>
       <c r="J2">
-        <v>12.49707076762107</v>
+        <v>11.84203751544264</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.77525597988126</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.17630981439656</v>
       </c>
       <c r="N2">
-        <v>6.393370280075161</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.67864690214132</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.588487750732464</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.73684958218525</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74876240710045</v>
+        <v>19.80411054117043</v>
       </c>
       <c r="C3">
-        <v>13.47579282628665</v>
+        <v>14.17149255290523</v>
       </c>
       <c r="D3">
-        <v>4.517518925325565</v>
+        <v>4.476633240457516</v>
       </c>
       <c r="E3">
-        <v>8.085454658607377</v>
+        <v>7.989502157950787</v>
       </c>
       <c r="F3">
-        <v>26.78744702049755</v>
+        <v>24.40284990274187</v>
       </c>
       <c r="G3">
-        <v>38.33192858111521</v>
+        <v>33.67766565997214</v>
       </c>
       <c r="H3">
-        <v>2.828668266927054</v>
+        <v>2.676230597605116</v>
       </c>
       <c r="I3">
-        <v>3.470373301563562</v>
+        <v>3.279733771671098</v>
       </c>
       <c r="J3">
-        <v>12.27760343956561</v>
+        <v>11.68646068746335</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.83528007722797</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>12.05042364622504</v>
       </c>
       <c r="N3">
-        <v>6.199125418909013</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.04129615793842</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.401679918840962</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.08599803190403</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.824898090605</v>
+        <v>18.88757230736785</v>
       </c>
       <c r="C4">
-        <v>13.03190829757222</v>
+        <v>13.61978211384046</v>
       </c>
       <c r="D4">
-        <v>4.50535718574522</v>
+        <v>4.442051858684533</v>
       </c>
       <c r="E4">
-        <v>7.975019173343897</v>
+        <v>7.897492581387603</v>
       </c>
       <c r="F4">
-        <v>26.15491649094655</v>
+        <v>23.9451535510058</v>
       </c>
       <c r="G4">
-        <v>37.31744687812871</v>
+        <v>32.9970793779154</v>
       </c>
       <c r="H4">
-        <v>2.991661635509487</v>
+        <v>2.82249728854702</v>
       </c>
       <c r="I4">
-        <v>3.619253483294174</v>
+        <v>3.408366810555532</v>
       </c>
       <c r="J4">
-        <v>12.14339295211147</v>
+        <v>11.58930874907075</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.86763808410535</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.99136340182808</v>
       </c>
       <c r="N4">
-        <v>6.076792198847392</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.63384101633136</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.284402556865445</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.66912521399269</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44006547907729</v>
+        <v>18.50042982480738</v>
       </c>
       <c r="C5">
-        <v>12.85754787908269</v>
+        <v>13.39992741418232</v>
       </c>
       <c r="D5">
-        <v>4.500441457104959</v>
+        <v>4.428828321831054</v>
       </c>
       <c r="E5">
-        <v>7.927763615557117</v>
+        <v>7.858465449408709</v>
       </c>
       <c r="F5">
-        <v>25.87104808283928</v>
+        <v>23.73726211352692</v>
       </c>
       <c r="G5">
-        <v>36.85573170950923</v>
+        <v>32.68159408931485</v>
       </c>
       <c r="H5">
-        <v>3.059826050130586</v>
+        <v>2.883684874576736</v>
       </c>
       <c r="I5">
-        <v>3.683992936609219</v>
+        <v>3.465179494693301</v>
       </c>
       <c r="J5">
-        <v>12.08061665924359</v>
+        <v>11.54250300822497</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.86756645548135</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.96234059928393</v>
       </c>
       <c r="N5">
-        <v>6.026754186381815</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.46458819134301</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.236455247334076</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.49565397554176</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37662550505397</v>
+        <v>18.4349478195086</v>
       </c>
       <c r="C6">
-        <v>12.84102577433684</v>
+        <v>13.37563868972299</v>
       </c>
       <c r="D6">
-        <v>4.499966425576065</v>
+        <v>4.427842343390329</v>
       </c>
       <c r="E6">
-        <v>7.918230810510869</v>
+        <v>7.850945159125777</v>
       </c>
       <c r="F6">
-        <v>25.7952125794412</v>
+        <v>23.67847450170614</v>
       </c>
       <c r="G6">
-        <v>36.72723306923776</v>
+        <v>32.58528543469525</v>
       </c>
       <c r="H6">
-        <v>3.071759154611662</v>
+        <v>2.894389455765441</v>
       </c>
       <c r="I6">
-        <v>3.698296137332991</v>
+        <v>3.478711545849135</v>
       </c>
       <c r="J6">
-        <v>12.06011359858273</v>
+        <v>11.52636834657657</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.85269867546989</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.94611145007166</v>
       </c>
       <c r="N6">
-        <v>6.019079696053524</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.43710404330209</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.229015994485154</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.46733506863697</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81855650828272</v>
+        <v>18.88113750887313</v>
       </c>
       <c r="C7">
-        <v>13.06360012186583</v>
+        <v>13.6448828920717</v>
       </c>
       <c r="D7">
-        <v>4.506304801947189</v>
+        <v>4.447434950025652</v>
       </c>
       <c r="E7">
-        <v>7.969996625124032</v>
+        <v>7.89306804067739</v>
       </c>
       <c r="F7">
-        <v>26.07410757769422</v>
+        <v>23.84030798757495</v>
       </c>
       <c r="G7">
-        <v>37.17258702354218</v>
+        <v>32.92920604676841</v>
       </c>
       <c r="H7">
-        <v>2.994013396593216</v>
+        <v>2.825280769252764</v>
       </c>
       <c r="I7">
-        <v>3.629352131692716</v>
+        <v>3.420549215592225</v>
       </c>
       <c r="J7">
-        <v>12.11515808318838</v>
+        <v>11.50783988547211</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.81054573182694</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.94422826395096</v>
       </c>
       <c r="N7">
-        <v>6.077961138099941</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.63384411088339</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.284703323721817</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.66866752480353</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68781450619638</v>
+        <v>20.73476619527668</v>
       </c>
       <c r="C8">
-        <v>13.97901254178162</v>
+        <v>14.76664303661393</v>
       </c>
       <c r="D8">
-        <v>4.531281436491764</v>
+        <v>4.525762573872571</v>
       </c>
       <c r="E8">
-        <v>8.194746380082442</v>
+        <v>8.078271546629137</v>
       </c>
       <c r="F8">
-        <v>27.35462994117611</v>
+        <v>24.68554770560544</v>
       </c>
       <c r="G8">
-        <v>39.21714648549787</v>
+        <v>34.42137347403209</v>
       </c>
       <c r="H8">
-        <v>2.660921323206495</v>
+        <v>2.527902931137539</v>
       </c>
       <c r="I8">
-        <v>3.328040666282992</v>
+        <v>3.162882647089285</v>
       </c>
       <c r="J8">
-        <v>12.38591689071428</v>
+        <v>11.57109759776798</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.69375028403867</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.03486075200031</v>
       </c>
       <c r="N8">
-        <v>6.329435842732097</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.46508009726917</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.524832681922628</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.51811731095993</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94043650313823</v>
+        <v>23.95662561522311</v>
       </c>
       <c r="C9">
-        <v>15.59405180402305</v>
+        <v>16.75882463131003</v>
       </c>
       <c r="D9">
-        <v>4.570607357272785</v>
+        <v>4.66084120618616</v>
       </c>
       <c r="E9">
-        <v>8.616152483094435</v>
+        <v>8.429368221354846</v>
       </c>
       <c r="F9">
-        <v>29.8849359475046</v>
+        <v>26.52606324079604</v>
       </c>
       <c r="G9">
-        <v>43.22652916273629</v>
+        <v>37.25303797663133</v>
       </c>
       <c r="H9">
-        <v>2.044282163035991</v>
+        <v>1.976101691953814</v>
       </c>
       <c r="I9">
-        <v>2.763016357715089</v>
+        <v>2.676054372097101</v>
       </c>
       <c r="J9">
-        <v>12.96733514697418</v>
+        <v>11.93210942112619</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.55768320694888</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.46982711680739</v>
       </c>
       <c r="N9">
-        <v>6.793829267795605</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.9585661733218</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.973234110642512</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.03927976756851</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.09693831706796</v>
+        <v>26.08930580324118</v>
       </c>
       <c r="C10">
-        <v>16.82307902722055</v>
+        <v>18.19039578828316</v>
       </c>
       <c r="D10">
-        <v>4.605209849235359</v>
+        <v>4.79681295191343</v>
       </c>
       <c r="E10">
-        <v>8.886269175648678</v>
+        <v>8.670123473455901</v>
       </c>
       <c r="F10">
-        <v>31.31846010800427</v>
+        <v>27.38108654984694</v>
       </c>
       <c r="G10">
-        <v>45.39953525340774</v>
+        <v>39.0593554994105</v>
       </c>
       <c r="H10">
-        <v>1.648208880907361</v>
+        <v>1.62815062777116</v>
       </c>
       <c r="I10">
-        <v>2.582273127751407</v>
+        <v>2.620062248846134</v>
       </c>
       <c r="J10">
-        <v>13.26283217158548</v>
+        <v>11.78376654938083</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.20987086256526</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.61705995541996</v>
       </c>
       <c r="N10">
-        <v>7.021462297875912</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.90099823327163</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.185354351389966</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.99396582088797</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.15722521897479</v>
+        <v>27.14514421686236</v>
       </c>
       <c r="C11">
-        <v>18.35160005824715</v>
+        <v>19.58428555836225</v>
       </c>
       <c r="D11">
-        <v>4.772990886350368</v>
+        <v>5.129694130537228</v>
       </c>
       <c r="E11">
-        <v>9.069887102590005</v>
+        <v>9.011332596479585</v>
       </c>
       <c r="F11">
-        <v>29.1787027187275</v>
+        <v>25.28533954226491</v>
       </c>
       <c r="G11">
-        <v>41.43793353177364</v>
+        <v>36.45863902796896</v>
       </c>
       <c r="H11">
-        <v>2.678233191237323</v>
+        <v>2.675453545886343</v>
       </c>
       <c r="I11">
-        <v>2.701669353371984</v>
+        <v>2.723975428037452</v>
       </c>
       <c r="J11">
-        <v>12.33406181000027</v>
+        <v>10.46474932081773</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.81752869228291</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.2304077183565</v>
       </c>
       <c r="N11">
-        <v>6.333614268290054</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.71394196476474</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.460310667244763</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.79456903162788</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.61958535201346</v>
+        <v>27.60885186077245</v>
       </c>
       <c r="C12">
-        <v>19.40010550485654</v>
+        <v>20.46578727370679</v>
       </c>
       <c r="D12">
-        <v>4.981497658530476</v>
+        <v>5.413458937043917</v>
       </c>
       <c r="E12">
-        <v>9.51324055776961</v>
+        <v>9.547683065928178</v>
       </c>
       <c r="F12">
-        <v>27.14620362789847</v>
+        <v>23.51101694589452</v>
       </c>
       <c r="G12">
-        <v>37.77220013787349</v>
+        <v>33.82393342343771</v>
       </c>
       <c r="H12">
-        <v>4.090953180377428</v>
+        <v>4.090264570589745</v>
       </c>
       <c r="I12">
-        <v>2.726326235726584</v>
+        <v>2.745025604922857</v>
       </c>
       <c r="J12">
-        <v>11.52523723804416</v>
+        <v>9.644074658051487</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.90119879794232</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.15718463825727</v>
       </c>
       <c r="N12">
-        <v>5.781523119243767</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.34954189134493</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.880807485976969</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.41845602723416</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.66405357844808</v>
+        <v>27.65975841821441</v>
       </c>
       <c r="C13">
-        <v>20.20467061974264</v>
+        <v>21.08090291102868</v>
       </c>
       <c r="D13">
-        <v>5.223705254556893</v>
+        <v>5.652721321204165</v>
       </c>
       <c r="E13">
-        <v>10.13203756064051</v>
+        <v>10.22090752238736</v>
       </c>
       <c r="F13">
-        <v>24.9218394936737</v>
+        <v>21.82623414600775</v>
       </c>
       <c r="G13">
-        <v>33.83708565050663</v>
+        <v>30.64955032819583</v>
       </c>
       <c r="H13">
-        <v>5.536214671401527</v>
+        <v>5.533302444883235</v>
       </c>
       <c r="I13">
-        <v>2.684075596499979</v>
+        <v>2.711064313280404</v>
       </c>
       <c r="J13">
-        <v>10.71498698279658</v>
+        <v>9.192910133585732</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.24627758111683</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.254940338831034</v>
       </c>
       <c r="N13">
-        <v>5.320964575272074</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.81957691788306</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.400621247504421</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.87599655531499</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.50720136398211</v>
+        <v>27.50958884933631</v>
       </c>
       <c r="C14">
-        <v>20.67986603727383</v>
+        <v>21.40903901089029</v>
       </c>
       <c r="D14">
-        <v>5.413739678896516</v>
+        <v>5.800805112183671</v>
       </c>
       <c r="E14">
-        <v>10.66075002925827</v>
+        <v>10.76701279240862</v>
       </c>
       <c r="F14">
-        <v>23.24030463806168</v>
+        <v>20.65289370691223</v>
       </c>
       <c r="G14">
-        <v>30.89074541102108</v>
+        <v>28.12973027296818</v>
       </c>
       <c r="H14">
-        <v>6.557048812680446</v>
+        <v>6.55181294702307</v>
       </c>
       <c r="I14">
-        <v>2.626027592890444</v>
+        <v>2.664314082063182</v>
       </c>
       <c r="J14">
-        <v>10.14398141397061</v>
+        <v>9.013241902952043</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.89603575390267</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.712095972584519</v>
       </c>
       <c r="N14">
-        <v>5.069740815764927</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.36734619299297</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.140112479787062</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.41421572167682</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37827885889151</v>
+        <v>27.38343295386313</v>
       </c>
       <c r="C15">
-        <v>20.75243033658917</v>
+        <v>21.44181251847422</v>
       </c>
       <c r="D15">
-        <v>5.460688355455527</v>
+        <v>5.824692695184241</v>
       </c>
       <c r="E15">
-        <v>10.78629904755188</v>
+        <v>10.89525195393694</v>
       </c>
       <c r="F15">
-        <v>22.76472516204811</v>
+        <v>20.35858270575935</v>
       </c>
       <c r="G15">
-        <v>30.07011434988353</v>
+        <v>27.37260876449729</v>
       </c>
       <c r="H15">
-        <v>6.79546072696136</v>
+        <v>6.789042512129575</v>
       </c>
       <c r="I15">
-        <v>2.598396732583546</v>
+        <v>2.64266410582391</v>
       </c>
       <c r="J15">
-        <v>9.997020772163621</v>
+        <v>9.019692365003898</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.83685311136175</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.603417953662383</v>
       </c>
       <c r="N15">
-        <v>5.017622741615232</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.22218146452238</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.087619498729234</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.26628716443435</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49705935445424</v>
+        <v>26.51276499837029</v>
       </c>
       <c r="C16">
-        <v>20.15616935874986</v>
+        <v>20.83247102926171</v>
       </c>
       <c r="D16">
-        <v>5.391898588971183</v>
+        <v>5.664346347890073</v>
       </c>
       <c r="E16">
-        <v>10.55034909481453</v>
+        <v>10.67032299592971</v>
       </c>
       <c r="F16">
-        <v>22.44155386260445</v>
+        <v>20.47748331538034</v>
       </c>
       <c r="G16">
-        <v>29.63544780549953</v>
+        <v>26.56545388572398</v>
       </c>
       <c r="H16">
-        <v>6.60778167438774</v>
+        <v>6.593740308926312</v>
       </c>
       <c r="I16">
-        <v>2.566545217203202</v>
+        <v>2.519954368961638</v>
       </c>
       <c r="J16">
-        <v>10.00513269798618</v>
+        <v>9.51050209145216</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.0946673642699</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.850365693296585</v>
       </c>
       <c r="N16">
-        <v>4.998790145261407</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.90721249705531</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.084991972703125</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.94823821106895</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.8923387221098</v>
+        <v>25.91232926208263</v>
       </c>
       <c r="C17">
-        <v>19.42228690655988</v>
+        <v>20.16393800830819</v>
       </c>
       <c r="D17">
-        <v>5.233039783831141</v>
+        <v>5.471909367588576</v>
       </c>
       <c r="E17">
-        <v>10.05791053238301</v>
+        <v>10.17868637441903</v>
       </c>
       <c r="F17">
-        <v>23.11655406042964</v>
+        <v>21.16977608338577</v>
       </c>
       <c r="G17">
-        <v>30.92261998762556</v>
+        <v>27.40621437011502</v>
       </c>
       <c r="H17">
-        <v>5.894738895519859</v>
+        <v>5.874113533110893</v>
       </c>
       <c r="I17">
-        <v>2.656796258741975</v>
+        <v>2.58947260519955</v>
       </c>
       <c r="J17">
-        <v>10.31413487644921</v>
+        <v>9.949438176292819</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.49072194413457</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.294693680731447</v>
       </c>
       <c r="N17">
-        <v>5.104770495922347</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.91335222663797</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.207312991311867</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.95722856568919</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.47134579534955</v>
+        <v>25.49086330709279</v>
       </c>
       <c r="C18">
-        <v>18.4802254458637</v>
+        <v>19.36606941680332</v>
       </c>
       <c r="D18">
-        <v>4.999764750519335</v>
+        <v>5.227905277883529</v>
       </c>
       <c r="E18">
-        <v>9.399922605251506</v>
+        <v>9.496301403794545</v>
       </c>
       <c r="F18">
-        <v>24.78006611310425</v>
+        <v>22.54486084162694</v>
       </c>
       <c r="G18">
-        <v>33.93444600949824</v>
+        <v>29.72576059784685</v>
       </c>
       <c r="H18">
-        <v>4.67626680794696</v>
+        <v>4.648319696566846</v>
       </c>
       <c r="I18">
-        <v>2.682907966767471</v>
+        <v>2.609235292379362</v>
       </c>
       <c r="J18">
-        <v>10.94440831406823</v>
+        <v>10.50599863704299</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.14575286219192</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.04007780205286</v>
       </c>
       <c r="N18">
-        <v>5.404509583292104</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.19576448487155</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.526581910976913</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.24887548129977</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.23630967326405</v>
+        <v>25.25152748110057</v>
       </c>
       <c r="C19">
-        <v>17.54566485915059</v>
+        <v>18.60896287892969</v>
       </c>
       <c r="D19">
-        <v>4.784146309470646</v>
+        <v>4.995414507473266</v>
       </c>
       <c r="E19">
-        <v>8.880274536093136</v>
+        <v>8.89946222465394</v>
       </c>
       <c r="F19">
-        <v>26.97894905722717</v>
+        <v>24.27902046349863</v>
       </c>
       <c r="G19">
-        <v>37.86666948843313</v>
+        <v>32.80490704264717</v>
       </c>
       <c r="H19">
-        <v>3.244703399149902</v>
+        <v>3.207737026289746</v>
       </c>
       <c r="I19">
-        <v>2.6714698387833</v>
+        <v>2.60280388512155</v>
       </c>
       <c r="J19">
-        <v>11.75597836598391</v>
+        <v>11.12907168503836</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.97824844411264</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.98042308793383</v>
       </c>
       <c r="N19">
-        <v>5.92861930932264</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.67503823863407</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.071769292359456</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.74142418630657</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54500683463068</v>
+        <v>25.54487616169964</v>
       </c>
       <c r="C20">
-        <v>16.60027644376914</v>
+        <v>17.92902307459363</v>
       </c>
       <c r="D20">
-        <v>4.602562078255117</v>
+        <v>4.766127941600351</v>
       </c>
       <c r="E20">
-        <v>8.804009539335887</v>
+        <v>8.605538548236186</v>
       </c>
       <c r="F20">
-        <v>30.72855142608234</v>
+        <v>27.08668908901393</v>
       </c>
       <c r="G20">
-        <v>44.45044276835567</v>
+        <v>38.08756970198684</v>
       </c>
       <c r="H20">
-        <v>1.753645160667333</v>
+        <v>1.718470530659307</v>
       </c>
       <c r="I20">
-        <v>2.518381267037924</v>
+        <v>2.554948600086771</v>
       </c>
       <c r="J20">
-        <v>13.10195727072724</v>
+        <v>11.94645500668846</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.24691558551095</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.51407171627249</v>
       </c>
       <c r="N20">
-        <v>6.963249957792292</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.66126145798461</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.131899507480136</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.75095775555819</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.09937622281288</v>
+        <v>27.0753109655034</v>
       </c>
       <c r="C21">
-        <v>17.33262842790719</v>
+        <v>18.75433781112251</v>
       </c>
       <c r="D21">
-        <v>4.611936913519449</v>
+        <v>4.889886507647979</v>
       </c>
       <c r="E21">
-        <v>9.046100976657661</v>
+        <v>8.77075915177053</v>
       </c>
       <c r="F21">
-        <v>32.33610691831591</v>
+        <v>27.57060461579327</v>
       </c>
       <c r="G21">
-        <v>47.01556991852062</v>
+        <v>41.09217356645451</v>
       </c>
       <c r="H21">
-        <v>1.713402363864367</v>
+        <v>1.700745957721131</v>
       </c>
       <c r="I21">
-        <v>2.787365239872585</v>
+        <v>2.791964896298299</v>
       </c>
       <c r="J21">
-        <v>13.53217825063224</v>
+        <v>11.01428204851643</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>13.95077848136136</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.60717570269848</v>
       </c>
       <c r="N21">
-        <v>7.28260224346793</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.4627902202014</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.43607028227957</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.56056558347758</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.08080968666535</v>
+        <v>28.04099293261712</v>
       </c>
       <c r="C22">
-        <v>17.81780367188684</v>
+        <v>19.28457688275194</v>
       </c>
       <c r="D22">
-        <v>4.619883780985748</v>
+        <v>4.983133746127195</v>
       </c>
       <c r="E22">
-        <v>9.19510835735826</v>
+        <v>8.880588588978963</v>
       </c>
       <c r="F22">
-        <v>33.28707473557277</v>
+        <v>27.78965493334738</v>
       </c>
       <c r="G22">
-        <v>48.51226761055478</v>
+        <v>42.98803090841997</v>
       </c>
       <c r="H22">
-        <v>1.918979601002252</v>
+        <v>1.876267984798724</v>
       </c>
       <c r="I22">
-        <v>2.967818416057929</v>
+        <v>2.936807408071767</v>
       </c>
       <c r="J22">
-        <v>13.7826760604547</v>
+        <v>10.34804253481893</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.71367088503319</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.62471730520287</v>
       </c>
       <c r="N22">
-        <v>7.435675176822463</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.93225900556682</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.578178985634329</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.03328505943431</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.56210919798959</v>
+        <v>27.53099264905558</v>
       </c>
       <c r="C23">
-        <v>17.52819095641935</v>
+        <v>18.98290841172837</v>
       </c>
       <c r="D23">
-        <v>4.61356129257612</v>
+        <v>4.918918498222196</v>
       </c>
       <c r="E23">
-        <v>9.119911288323262</v>
+        <v>8.826116747594407</v>
       </c>
       <c r="F23">
-        <v>32.85452824186488</v>
+        <v>27.81506953717429</v>
       </c>
       <c r="G23">
-        <v>47.84636451471934</v>
+        <v>41.96580018317093</v>
       </c>
       <c r="H23">
-        <v>1.810878982713096</v>
+        <v>1.785098384526131</v>
       </c>
       <c r="I23">
-        <v>2.867522163022949</v>
+        <v>2.854955222137196</v>
       </c>
       <c r="J23">
-        <v>13.67758197081003</v>
+        <v>10.85011099226747</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>13.9091462050499</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.69641293971896</v>
       </c>
       <c r="N23">
-        <v>7.352339832708335</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.68132890071551</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.502026352741186</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.78138305480211</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.50818928450955</v>
+        <v>25.50739620928341</v>
       </c>
       <c r="C24">
-        <v>16.45195979291584</v>
+        <v>17.79375051114563</v>
       </c>
       <c r="D24">
-        <v>4.591340515887437</v>
+        <v>4.740019837574507</v>
       </c>
       <c r="E24">
-        <v>8.824885262916549</v>
+        <v>8.605344370062779</v>
       </c>
       <c r="F24">
-        <v>31.069700036665</v>
+        <v>27.36780371362805</v>
       </c>
       <c r="G24">
-        <v>45.06090420582595</v>
+        <v>38.57444527765026</v>
       </c>
       <c r="H24">
-        <v>1.732276904040883</v>
+        <v>1.697642343665411</v>
       </c>
       <c r="I24">
-        <v>2.496201392697567</v>
+        <v>2.54442792218746</v>
       </c>
       <c r="J24">
-        <v>13.2352051537831</v>
+        <v>12.05859106002727</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.41132318503169</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.68987774386342</v>
       </c>
       <c r="N24">
-        <v>7.032976536607599</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.70055906676597</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.204455112147451</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.79200627076821</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.1025806985518</v>
+        <v>23.12774612375144</v>
       </c>
       <c r="C25">
-        <v>15.2249755088455</v>
+        <v>16.29888700915312</v>
       </c>
       <c r="D25">
-        <v>4.563449415475708</v>
+        <v>4.628632623576463</v>
       </c>
       <c r="E25">
-        <v>8.497806399213882</v>
+        <v>8.334266160563963</v>
       </c>
       <c r="F25">
-        <v>29.08917078822227</v>
+        <v>25.97739347270103</v>
       </c>
       <c r="G25">
-        <v>41.9468605615286</v>
+        <v>36.23652350669345</v>
       </c>
       <c r="H25">
-        <v>2.209422754207361</v>
+        <v>2.122793419093539</v>
       </c>
       <c r="I25">
-        <v>2.929405234659836</v>
+        <v>2.823446650471687</v>
       </c>
       <c r="J25">
-        <v>12.76329601973192</v>
+        <v>11.87672733993323</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.55861550701436</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.2961567639548</v>
       </c>
       <c r="N25">
-        <v>6.674248600752951</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.5727721645523</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.857852999981574</v>
       </c>
       <c r="Q25">
+        <v>13.64663198997121</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
